--- a/Config Files/LoopCtrls_V0.xlsx
+++ b/Config Files/LoopCtrls_V0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87998EA5-E1A5-406B-9850-358A66DD6D79}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C2AA96-F99C-40D5-A55B-DABA00BBDB9B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="67">
   <si>
     <t>Version: 1</t>
   </si>
@@ -80,13 +80,154 @@
   </si>
   <si>
     <t>EnTPConfigDW</t>
+  </si>
+  <si>
+    <t>Supply fan</t>
+  </si>
+  <si>
+    <t>Extract fan</t>
+  </si>
+  <si>
+    <t>Air quality fan control</t>
+  </si>
+  <si>
+    <t>Supply fan frost</t>
+  </si>
+  <si>
+    <t>Cooling</t>
+  </si>
+  <si>
+    <t>Mixing dampers controller</t>
+  </si>
+  <si>
+    <t>Hrec frost controller</t>
+  </si>
+  <si>
+    <t>Heat recovery</t>
+  </si>
+  <si>
+    <t>Heating</t>
+  </si>
+  <si>
+    <t>1.1 Electrical heating</t>
+  </si>
+  <si>
+    <t>1.2 Electrical heating</t>
+  </si>
+  <si>
+    <t>1.3 Electrical heating</t>
+  </si>
+  <si>
+    <t>1.4 Electrical heating</t>
+  </si>
+  <si>
+    <t>Electrical heating</t>
+  </si>
+  <si>
+    <t>2 Electrical heating</t>
+  </si>
+  <si>
+    <t>Max supply tmp</t>
+  </si>
+  <si>
+    <t>Min supply tmp</t>
+  </si>
+  <si>
+    <t>Casc controller tmp</t>
+  </si>
+  <si>
+    <t>Humidification</t>
+  </si>
+  <si>
+    <t>Dehumidification</t>
+  </si>
+  <si>
+    <t>Max supply hum</t>
+  </si>
+  <si>
+    <t>Min tmp dehum ctrl min ctrl</t>
+  </si>
+  <si>
+    <t>Casc controller hum</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>0x2305 'Unit1\FanControl.SplyFanCtrl.Var.Ctlr'</t>
+  </si>
+  <si>
+    <t>0x2305 'Unit1\FanControl.ExtFanCtrl.Var.Ctlr'</t>
+  </si>
+  <si>
+    <t>0x2305 'Unit1\FanControl.AirQSplyFanCtrl.Ctlr'</t>
+  </si>
+  <si>
+    <t>0x2305 'Unit1\FanControl.SFFrostCtrl'</t>
+  </si>
+  <si>
+    <t>0x2305 'Unit1\TempControl.Clg.Ctlr'</t>
+  </si>
+  <si>
+    <t>0x2305 'Unit1\TempControl.MixDmpClsdCtrl.Ctlr'</t>
+  </si>
+  <si>
+    <t>0x2305 'Unit1\TempControl.HrcCtrlr.Frst.Ctlr'</t>
+  </si>
+  <si>
+    <t>0x2305 'Unit1\TempControl.HrcCtrlr.Ctlr'</t>
+  </si>
+  <si>
+    <t>0x2305 'Unit1\TempControl.Htg.Ctlr'</t>
+  </si>
+  <si>
+    <t>0x2305 'Unit1\TempControl.ElHeater.ElHtg.Ctlr'</t>
+  </si>
+  <si>
+    <t>0x2305 'Unit1\TempControl.ElHeater.ElHtg1.Ctlr'</t>
+  </si>
+  <si>
+    <t>0x2305 'Unit1\TempControl.ElHeater.ElHtg2.Ctlr'</t>
+  </si>
+  <si>
+    <t>0x2305 'Unit1\TempControl.ElHeater.ElHtg3.Ctlr'</t>
+  </si>
+  <si>
+    <t>0x2305 'Unit1\TempControl.AuxElHtg1.Ctlr'</t>
+  </si>
+  <si>
+    <t>0x2305 'Unit1\TempControl.AuxElHtg2.Ctlr'</t>
+  </si>
+  <si>
+    <t>0x2305 'Unit1\TempControl.MinMaxTmpCtrl.MaxCtlr'</t>
+  </si>
+  <si>
+    <t>0x2305 'Unit1\TempControl.MinMaxTmpCtrl.MinCtlr'</t>
+  </si>
+  <si>
+    <t>0x230F 'Unit1\TempControl.CascLeadCtlrEx'</t>
+  </si>
+  <si>
+    <t>0x2305 'Unit1\aoHumitityControl.Hum.Ctlr'</t>
+  </si>
+  <si>
+    <t>0x2305 'Unit1\aoHumitityControl.DeHum.Ctlr'</t>
+  </si>
+  <si>
+    <t>0x2305 'Unit1\aoHumitityControl.HumMaxCtlr.MaxCtlr'</t>
+  </si>
+  <si>
+    <t>0x2305 0x031AC717</t>
+  </si>
+  <si>
+    <t>0x230F 'Unit1\aoHumitityControl.CasHumidity'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +243,17 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="6">
@@ -148,18 +300,345 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="46">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -435,17 +914,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" customWidth="1"/>
     <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
@@ -532,18 +1011,996 @@
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>301</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>304</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>307</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>310</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>313</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>316</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <v>319</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17">
+        <v>7</v>
+      </c>
+      <c r="I17">
+        <v>322</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <v>325</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19">
+        <v>9</v>
+      </c>
+      <c r="I19">
+        <v>328</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>331</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21">
+        <v>11</v>
+      </c>
+      <c r="I21">
+        <v>334</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22">
+        <v>12</v>
+      </c>
+      <c r="I22">
+        <v>337</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23">
+        <v>13</v>
+      </c>
+      <c r="I23">
+        <v>340</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24">
+        <v>14</v>
+      </c>
+      <c r="I24">
+        <v>343</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25">
+        <v>15</v>
+      </c>
+      <c r="I25">
+        <v>346</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26">
+        <v>16</v>
+      </c>
+      <c r="I26">
+        <v>349</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27">
         <v>18</v>
       </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27">
+        <v>17</v>
+      </c>
+      <c r="I27">
+        <v>352</v>
+      </c>
+      <c r="J27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29">
+        <v>18</v>
+      </c>
+      <c r="I29">
+        <v>355</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30">
+        <v>19</v>
+      </c>
+      <c r="I30">
+        <v>358</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31">
+        <v>21</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31">
+        <v>20</v>
+      </c>
+      <c r="I31">
+        <v>361</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32">
+        <v>21</v>
+      </c>
+      <c r="I32">
+        <v>364</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33">
+        <v>23</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33">
+        <v>22</v>
+      </c>
+      <c r="I33">
+        <v>367</v>
+      </c>
+      <c r="J33" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="cellIs" dxfId="45" priority="46" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="cellIs" dxfId="44" priority="45" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="cellIs" dxfId="43" priority="44" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="cellIs" dxfId="42" priority="43" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="cellIs" dxfId="41" priority="42" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="cellIs" dxfId="40" priority="41" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="cellIs" dxfId="39" priority="40" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="cellIs" dxfId="38" priority="39" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="cellIs" dxfId="37" priority="38" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="cellIs" dxfId="36" priority="37" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="cellIs" dxfId="35" priority="36" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="cellIs" dxfId="34" priority="35" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="cellIs" dxfId="33" priority="34" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="cellIs" dxfId="32" priority="33" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="cellIs" dxfId="31" priority="32" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="cellIs" dxfId="30" priority="31" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="cellIs" dxfId="29" priority="30" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="cellIs" dxfId="28" priority="29" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="cellIs" dxfId="27" priority="28" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="cellIs" dxfId="26" priority="27" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="cellIs" dxfId="25" priority="26" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="cellIs" dxfId="24" priority="25" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="cellIs" dxfId="23" priority="24" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24">
+    <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24">
+    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27">
+    <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27">
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Config Files/LoopCtrls_V0.xlsx
+++ b/Config Files/LoopCtrls_V0.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C2AA96-F99C-40D5-A55B-DABA00BBDB9B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1D7518-D581-406A-9B62-79C2E85031C8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,185 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{9E74A8E9-9237-4992-8692-C5CB8DBF4992}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ID iz tablice stringova u weinteku
+[015] StptLoopCtrls</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{EE2DD63F-9AFE-4342-A0C3-7E9605DD3F71}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+registar za provjeru postojanja kontrolera</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{3068FD81-800C-44BE-817A-63C160F248F1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+adresa za provjeru postojanja kontrolera</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{2D446DAF-07D3-402E-96E7-64B3FDCBC873}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+DW za provjeru postojanja kontrolera</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{D23C47AE-0899-45F8-822E-1CC5C4F5A063}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+uvijet za provjeru postojanja kontrolera</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{42B829C9-0DD7-4106-8B92-704871637E92}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+pozicija bita u DW-u za provjeru postojanja kontrolera</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{9E2AE0AE-CA5B-49C1-8269-5B08F12D5CA3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+adresa kontrolera</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="67">
   <si>
@@ -58,12 +237,6 @@
     <t>En Addr</t>
   </si>
   <si>
-    <t>En Condition</t>
-  </si>
-  <si>
-    <t>En bit position</t>
-  </si>
-  <si>
     <t>Addr</t>
   </si>
   <si>
@@ -79,9 +252,6 @@
     <t>#GROUP# HUMIDITY</t>
   </si>
   <si>
-    <t>EnTPConfigDW</t>
-  </si>
-  <si>
     <t>Supply fan</t>
   </si>
   <si>
@@ -221,13 +391,22 @@
   </si>
   <si>
     <t>0x230F 'Unit1\aoHumitityControl.CasHumidity'</t>
+  </si>
+  <si>
+    <t>En TPConfigDW</t>
+  </si>
+  <si>
+    <t>En condition</t>
+  </si>
+  <si>
+    <t>En bit pos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +433,19 @@
       <color theme="1"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -913,29 +1105,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -943,7 +1135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -951,7 +1143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -959,7 +1151,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -967,7 +1159,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -975,7 +1167,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,59 +1184,59 @@
         <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1056,27 +1248,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F10">
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1088,27 +1280,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1120,27 +1312,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F12">
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -1152,32 +1344,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F14">
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H14">
         <v>4</v>
@@ -1189,27 +1381,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F15">
         <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H15">
         <v>5</v>
@@ -1221,27 +1413,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F16">
         <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H16">
         <v>6</v>
@@ -1253,27 +1445,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F17">
         <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H17">
         <v>7</v>
@@ -1285,27 +1477,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F18">
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H18">
         <v>8</v>
@@ -1317,27 +1509,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C19">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F19">
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H19">
         <v>9</v>
@@ -1349,27 +1541,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C20">
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F20">
         <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H20">
         <v>10</v>
@@ -1381,27 +1573,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F21">
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H21">
         <v>11</v>
@@ -1413,27 +1605,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C22">
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F22">
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H22">
         <v>12</v>
@@ -1445,27 +1637,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C23">
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F23">
         <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H23">
         <v>13</v>
@@ -1477,27 +1669,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C24">
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F24">
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H24">
         <v>14</v>
@@ -1509,27 +1701,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C25">
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F25">
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H25">
         <v>15</v>
@@ -1541,27 +1733,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C26">
         <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F26">
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H26">
         <v>16</v>
@@ -1573,27 +1765,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C27">
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F27">
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H27">
         <v>17</v>
@@ -1605,32 +1797,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F29">
         <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H29">
         <v>18</v>
@@ -1642,27 +1834,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C30">
         <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F30">
         <v>3</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H30">
         <v>19</v>
@@ -1674,27 +1866,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C31">
         <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F31">
         <v>3</v>
       </c>
       <c r="G31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H31">
         <v>20</v>
@@ -1706,27 +1898,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C32">
         <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F32">
         <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H32">
         <v>21</v>
@@ -1738,27 +1930,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C33">
         <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F33">
         <v>3</v>
       </c>
       <c r="G33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H33">
         <v>22</v>
@@ -2003,5 +2195,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Config Files/LoopCtrls_V0.xlsx
+++ b/Config Files/LoopCtrls_V0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1D7518-D581-406A-9B62-79C2E85031C8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6D123A-CBB7-4E33-B5C6-63BFB1812BAF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{EE2DD63F-9AFE-4342-A0C3-7E9605DD3F71}">
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{5955E53B-5FF3-4609-8AC8-CF572E42E9E1}">
       <text>
         <r>
           <rPr>
@@ -70,11 +70,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-registar za provjeru postojanja kontrolera</t>
+tip registra za provjeru postojanja stignala</t>
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{3068FD81-800C-44BE-817A-63C160F248F1}">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{DE97B2E7-553F-40B5-AB9E-1D5E15395101}">
       <text>
         <r>
           <rPr>
@@ -94,11 +94,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-adresa za provjeru postojanja kontrolera</t>
+adresa za provjeru postojanja signala</t>
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{2D446DAF-07D3-402E-96E7-64B3FDCBC873}">
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{03A35EA0-FD6C-4039-9D9B-888C3808F82A}">
       <text>
         <r>
           <rPr>
@@ -118,11 +118,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-DW za provjeru postojanja kontrolera</t>
+DW (double word u kojem bitovi označuju postojanje odgovarajućeg signala) za provjeru postojanja signala</t>
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{D23C47AE-0899-45F8-822E-1CC5C4F5A063}">
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{FD6380AA-4B0A-442A-B0E7-D3EEB0CD40D6}">
       <text>
         <r>
           <rPr>
@@ -142,11 +142,14 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-uvijet za provjeru postojanja kontrolera</t>
+uvijet za provjeru postojanja signala. Npr:
+&lt; 1
+&gt; 2
+== 3</t>
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{42B829C9-0DD7-4106-8B92-704871637E92}">
+    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{A07A4592-92E1-4596-AF4A-166C7CF8A28B}">
       <text>
         <r>
           <rPr>
@@ -166,7 +169,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-pozicija bita u DW-u za provjeru postojanja kontrolera</t>
+pozicija bita u DW-u za provjeru postojanja signala</t>
         </r>
       </text>
     </comment>
@@ -1109,7 +1112,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
